--- a/Operational-Research_Fall_2022/3_OCTOBER_ATTENDANCE_SUBMITTED_DPG.xlsx
+++ b/Operational-Research_Fall_2022/3_OCTOBER_ATTENDANCE_SUBMITTED_DPG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083CFD06-2E8B-463D-A5E7-9BFF351A3BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{110B8DCC-A1BD-46B8-8647-C4054B1B3B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="October" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">October!$A$1:$K$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">October!$A$1:$K$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -116,13 +116,85 @@
     <t>12:00 PM To 03:00 PM</t>
   </si>
   <si>
-    <t>20MEMECH-15</t>
-  </si>
-  <si>
-    <t>20MEMECH-10</t>
-  </si>
-  <si>
-    <t>19MEMECH-34</t>
+    <t>21ME-MECH-03</t>
+  </si>
+  <si>
+    <t>Ikhlaq Ahmed Shah</t>
+  </si>
+  <si>
+    <t>21ME-MECH-05</t>
+  </si>
+  <si>
+    <t>Abdul Wahab</t>
+  </si>
+  <si>
+    <t>21ME-MECH-06</t>
+  </si>
+  <si>
+    <t>Nosherwan</t>
+  </si>
+  <si>
+    <t>21ME-MECH-07</t>
+  </si>
+  <si>
+    <t>Abdullah Khalil</t>
+  </si>
+  <si>
+    <t>21ME-MECH-09</t>
+  </si>
+  <si>
+    <t>Mashooq Ali</t>
+  </si>
+  <si>
+    <t>21ME-MECH-10</t>
+  </si>
+  <si>
+    <t>OrangZaib</t>
+  </si>
+  <si>
+    <t>21ME-MECH-11</t>
+  </si>
+  <si>
+    <t>Jehan Zaib Khan</t>
+  </si>
+  <si>
+    <t>20ME-MECH-11</t>
+  </si>
+  <si>
+    <t>Imran</t>
+  </si>
+  <si>
+    <t>20ME-MECH-10</t>
+  </si>
+  <si>
+    <t>Yaqoob</t>
+  </si>
+  <si>
+    <t>20ME-MECH-09</t>
+  </si>
+  <si>
+    <t>Shahid Noor</t>
+  </si>
+  <si>
+    <t>20ME-MECH-15</t>
+  </si>
+  <si>
+    <t>Muhammad Ajab Khan</t>
+  </si>
+  <si>
+    <t>19ME-MECH-34</t>
+  </si>
+  <si>
+    <t>Ehsanullah</t>
+  </si>
+  <si>
+    <t>20ME-MECH-03</t>
+  </si>
+  <si>
+    <t>Wajid Ali</t>
+  </si>
+  <si>
+    <t>09:00 AM To 12:00 PM</t>
   </si>
 </sst>
 </file>
@@ -213,7 +285,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,12 +295,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -446,9 +512,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -480,71 +543,68 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,16 +944,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.140625" style="4" customWidth="1"/>
@@ -909,66 +969,66 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30" t="s">
+      <c r="D4" s="45"/>
+      <c r="E4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="41" t="s">
         <v>21</v>
       </c>
@@ -980,47 +1040,47 @@
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="45" t="s">
+      <c r="D6" s="45"/>
+      <c r="E6" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="44" t="s">
+      <c r="D8" s="45"/>
+      <c r="E8" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1034,108 +1094,118 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>1</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
+      <c r="E10" s="21">
+        <v>9</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="38" t="s">
+      <c r="K10" s="37" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="20" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
+      <c r="E11" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
       <c r="J11" s="43"/>
-      <c r="K11" s="39"/>
+      <c r="K11" s="38"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="23" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="18">
-        <v>3</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19">
+      <c r="D12" s="17">
+        <v>3</v>
+      </c>
+      <c r="E12" s="17">
+        <v>3</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="18">
         <f>SUM(D12:I12)</f>
-        <v>3</v>
-      </c>
-      <c r="K12" s="25">
+        <v>6</v>
+      </c>
+      <c r="K12" s="24">
         <f>(J12/$J$12)*100</f>
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="37"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>1</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="17">
-        <v>3</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
       <c r="J14" s="8">
-        <f t="shared" ref="J14:J42" si="0">SUM(D14:I14)</f>
-        <v>3</v>
-      </c>
-      <c r="K14" s="21">
-        <f t="shared" ref="K14:K42" si="1">(J14/$J$12)*100</f>
-        <v>100</v>
+        <f t="shared" ref="J14:J26" si="0">SUM(D14:I14)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="20">
+        <f t="shared" ref="K14:K26" si="1">(J14/$J$12)*100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1143,22 +1213,26 @@
         <v>2</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="17">
-        <v>3</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
+        <v>27</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="16">
+        <v>3</v>
+      </c>
+      <c r="E15" s="16">
+        <v>3</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
       <c r="J15" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K15" s="21">
+        <v>6</v>
+      </c>
+      <c r="K15" s="20">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -1168,22 +1242,26 @@
         <v>3</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="17">
-        <v>3</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+        <v>29</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="16">
+        <v>3</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
       <c r="J16" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K16" s="21">
+        <v>6</v>
+      </c>
+      <c r="K16" s="20">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -1192,113 +1270,143 @@
       <c r="A17" s="9">
         <v>4</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+      <c r="B17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="16">
+        <v>3</v>
+      </c>
+      <c r="E17" s="16">
+        <v>3</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
       <c r="J17" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="21">
+        <v>6</v>
+      </c>
+      <c r="K17" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>5</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="17">
-        <v>0</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
+      <c r="B18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="16">
+        <v>3</v>
+      </c>
+      <c r="E18" s="16">
+        <v>3</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
       <c r="J18" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="21">
+        <v>6</v>
+      </c>
+      <c r="K18" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>6</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="17">
-        <v>0</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
+      <c r="B19" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="16">
+        <v>3</v>
+      </c>
+      <c r="E19" s="16">
+        <v>3</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
       <c r="J19" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="21">
+        <v>6</v>
+      </c>
+      <c r="K19" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>7</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="17">
-        <v>0</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
+      <c r="B20" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="16">
+        <v>3</v>
+      </c>
+      <c r="E20" s="16">
+        <v>3</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
       <c r="J20" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="21">
+        <v>6</v>
+      </c>
+      <c r="K20" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>8</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="17">
+      <c r="B21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="16">
         <v>0</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
+      <c r="E21" s="16">
+        <v>0</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
       <c r="J21" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1307,523 +1415,195 @@
       <c r="A22" s="9">
         <v>9</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="17">
-        <v>0</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
+      <c r="B22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="16">
+        <v>3</v>
+      </c>
+      <c r="E22" s="16">
+        <v>3</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
       <c r="J22" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="21">
+        <v>6</v>
+      </c>
+      <c r="K22" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>10</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="17">
-        <v>0</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
+      <c r="B23" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="16">
+        <v>3</v>
+      </c>
+      <c r="E23" s="16">
+        <v>3</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
       <c r="J23" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="21">
+        <v>6</v>
+      </c>
+      <c r="K23" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>11</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="17">
-        <v>0</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
+      <c r="B24" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="16">
+        <v>3</v>
+      </c>
+      <c r="E24" s="16">
+        <v>3</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
       <c r="J24" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="21">
+        <v>6</v>
+      </c>
+      <c r="K24" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46">
+      <c r="A25" s="27">
         <v>12</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="17">
-        <v>0</v>
-      </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="49">
+      <c r="B25" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="16">
+        <v>3</v>
+      </c>
+      <c r="E25" s="28">
+        <v>3</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="29">
         <f t="shared" ref="J25" si="2">SUM(D25:I25)</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="50">
+        <v>6</v>
+      </c>
+      <c r="K25" s="30">
         <f t="shared" ref="K25" si="3">(J25/$J$12)*100</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>13</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="17">
-        <v>0</v>
-      </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+      <c r="B26" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="16">
+        <v>3</v>
+      </c>
+      <c r="E26" s="16">
+        <v>3</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
       <c r="J26" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="21">
+        <v>6</v>
+      </c>
+      <c r="K26" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C28" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="17">
-        <v>0</v>
-      </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="D28" s="44"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="17">
-        <v>0</v>
-      </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
-        <v>16</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="17">
-        <v>0</v>
-      </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
-        <v>17</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="17">
-        <v>0</v>
-      </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
-        <v>18</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="17">
-        <v>0</v>
-      </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
-        <v>19</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="17">
-        <v>0</v>
-      </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
-        <v>20</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17">
-        <v>0</v>
-      </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
-        <v>21</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="17">
-        <v>0</v>
-      </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>22</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="17">
-        <v>0</v>
-      </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
-        <v>23</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="17">
-        <v>0</v>
-      </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
-        <v>24</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="17">
-        <v>0</v>
-      </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
-        <v>25</v>
-      </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="17">
-        <v>0</v>
-      </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
-        <v>26</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="17">
-        <v>0</v>
-      </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
-        <v>27</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="17">
-        <v>0</v>
-      </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
-        <v>28</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="17">
-        <v>0</v>
-      </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
-        <v>29</v>
-      </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="17">
-        <v>0</v>
-      </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C44" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="28"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" s="28"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F46" s="3"/>
-      <c r="G46" s="12"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+      <c r="I28" s="44"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F30" s="3"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="D13:K13"/>
@@ -1835,16 +1615,6 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="J10:J11"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
